--- a/biology/Médecine/Classe_ATC_N03/Classe_ATC_N03.xlsx
+++ b/biology/Médecine/Classe_ATC_N03/Classe_ATC_N03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC N03, dénommée « Antiépileptiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC N03, dénommée « Antiépileptiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
 </t>
         </is>
       </c>
@@ -513,45 +525,288 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N03AA Barbituriques et dérivés
-N03AA01 Méthylphénobarbital (en)
+          <t>N03AA Barbituriques et dérivés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N03AA01 Méthylphénobarbital (en)
 N03AA02 Phénobarbital
 N03AA03 Primidone
 N03AA04 Barbexaclone (en)
-N03AA30 Métharbital (en)
-N03AB hydantoïne et dérivés
-N03AB01 Éthotoïne (en)
+N03AA30 Métharbital (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N03A Antiépileptiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N03AB hydantoïne et dérivés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N03AB01 Éthotoïne (en)
 N03AB02 Phénytoïne
 N03AB03 Acide amino(diphénylhydantoïne) valérique
 N03AB04 Méphénytoïne (en)
 N03AB05 Fosphénytoïne (en)
 N03AB52 Phénytoïne, associations
-N03AB54 Méphénytoïne, associations
-N03AC Dérivés de l'oxazolidine
-N03AC01 Paraméthadione (en)
+N03AB54 Méphénytoïne, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N03A Antiépileptiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N03AC Dérivés de l'oxazolidine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N03AC01 Paraméthadione (en)
 N03AC02 Triméthadione
-N03AC03 Éthadione (en)
-N03AD Dérivés du succinimide
-N03AD01 Éthosuximide
+N03AC03 Éthadione (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N03A Antiépileptiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N03AD Dérivés du succinimide</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N03AD01 Éthosuximide
 N03AD02 Phensuximide (en)
 N03AD03 Mésuximide (en)
-N03AD51 Éthosuximide, associations
-N03AE Dérivés des benzodiazépines
-N03AE01 Clonazépam
-N03AF Dérivés du carboxamide
-N03AF01 Carbamazépine
+N03AD51 Éthosuximide, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N03A Antiépileptiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N03AE Dérivés des benzodiazépines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N03AE01 Clonazépam</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N03A Antiépileptiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N03AF Dérivés du carboxamide</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N03AF01 Carbamazépine
 N03AF02 Oxcarbazépine
 N03AF03 Rufinamide (en)
-N03AF04 Eslicarbazépine (en)
-N03AG Dérivés d'acide gras
-N03AG01 Acide valproïque
+N03AF04 Eslicarbazépine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N03A Antiépileptiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N03AG Dérivés d'acide gras</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N03AG01 Acide valproïque
 N03AG02 Valpromide
 N03AG03 Acide aminobutyrique
 N03AG04 Vigabatrine
 N03AG05 Progabide (en)
-N03AG06 Tiagabine
-N03AX Autres antiépileptiques
-N03AX03 Sultiame (en)
+N03AG06 Tiagabine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N03A Antiépileptiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N03AX Autres antiépileptiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N03AX03 Sultiame (en)
 N03AX07 Phénacémide (en)
 N03AX09 Lamotrigine
 N03AX10 Felbamate (en)
